--- a/Matury/2018 czerwiec/pomiary.xlsx
+++ b/Matury/2018 czerwiec/pomiary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Desktop\my_exam_practice\Matury\2018 czerwiec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6FB3FF-F8F6-4B3D-BF7D-4E63B0F87FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774BC532-CDAC-4AB3-AC5D-A55840C589E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>data</t>
   </si>
@@ -250,13 +250,23 @@
   <si>
     <t>Po trzecim</t>
   </si>
+  <si>
+    <t>Pomiaty pomiędzy</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Ilość rekordów</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -273,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +314,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -317,10 +333,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -335,6 +351,9 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2048,7 +2067,7 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="godzina" numFmtId="165">
+    <cacheField name="godzina" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T12:10:00"/>
     </cacheField>
     <cacheField name="czujnik10" numFmtId="0">
@@ -3090,7 +3109,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC796AEA-A6FA-4148-8477-C8520367597A}" name="Tabela przestawna2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC796AEA-A6FA-4148-8477-C8520367597A}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="G2:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -3466,7 +3485,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="15">
@@ -11488,11 +11507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C6626C-6D26-429C-BD5B-EEC77A5F5729}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11500,9 +11518,11 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11512,8 +11532,17 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F1" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42374</v>
       </c>
@@ -11523,11 +11552,13 @@
       <c r="C2">
         <v>-2.8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <f>IF(AND(B2&gt;=$E$1, B2 &lt;= $F$1),C2," ")</f>
+        <v>-2.8</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42377</v>
       </c>
@@ -11537,12 +11568,13 @@
       <c r="C3">
         <v>-5.78</v>
       </c>
-      <c r="E3" s="5">
-        <f>AVERAGE(C2:C200)</f>
-        <v>12.862562814070348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D66" si="0">IF(AND(B3&gt;=$E$1, B3 &lt;= $F$1),C3," ")</f>
+        <v>-5.78</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42387</v>
       </c>
@@ -11552,8 +11584,19 @@
       <c r="C4">
         <v>3.87</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SUM(D:D)</f>
+        <v>1412.9400000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42389</v>
       </c>
@@ -11563,8 +11606,19 @@
       <c r="C5">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="3">
+        <f>200 - COUNTIF(D:D, " ")</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42390</v>
       </c>
@@ -11574,8 +11628,19 @@
       <c r="C6">
         <v>8.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>8.14</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="17">
+        <f>ROUND(H4/H5,2)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42391</v>
       </c>
@@ -11585,8 +11650,12 @@
       <c r="C7">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42399</v>
       </c>
@@ -11596,8 +11665,12 @@
       <c r="C8">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42405</v>
       </c>
@@ -11607,8 +11680,12 @@
       <c r="C9">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42406</v>
       </c>
@@ -11618,8 +11695,12 @@
       <c r="C10">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42406</v>
       </c>
@@ -11629,8 +11710,12 @@
       <c r="C11">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42409</v>
       </c>
@@ -11640,8 +11725,12 @@
       <c r="C12">
         <v>-3.87</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42410</v>
       </c>
@@ -11651,8 +11740,12 @@
       <c r="C13">
         <v>7.35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42410</v>
       </c>
@@ -11662,8 +11755,12 @@
       <c r="C14">
         <v>8.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42413</v>
       </c>
@@ -11673,8 +11770,12 @@
       <c r="C15">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42415</v>
       </c>
@@ -11684,8 +11785,12 @@
       <c r="C16">
         <v>-7.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42415</v>
       </c>
@@ -11695,8 +11800,12 @@
       <c r="C17">
         <v>-6.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>-6.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42418</v>
       </c>
@@ -11706,8 +11815,12 @@
       <c r="C18">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42418</v>
       </c>
@@ -11717,8 +11830,12 @@
       <c r="C19">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42418</v>
       </c>
@@ -11728,8 +11845,12 @@
       <c r="C20">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42420</v>
       </c>
@@ -11739,8 +11860,12 @@
       <c r="C21">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42421</v>
       </c>
@@ -11750,8 +11875,12 @@
       <c r="C22">
         <v>-2.92</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42424</v>
       </c>
@@ -11761,8 +11890,12 @@
       <c r="C23">
         <v>-3.48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42430</v>
       </c>
@@ -11772,8 +11905,12 @@
       <c r="C24">
         <v>1.89</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42431</v>
       </c>
@@ -11783,8 +11920,12 @@
       <c r="C25">
         <v>-4.1900000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42433</v>
       </c>
@@ -11794,8 +11935,12 @@
       <c r="C26">
         <v>-1.0900000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42435</v>
       </c>
@@ -11805,8 +11950,12 @@
       <c r="C27">
         <v>-1.99</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42436</v>
       </c>
@@ -11816,8 +11965,12 @@
       <c r="C28">
         <v>-3.83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42439</v>
       </c>
@@ -11827,8 +11980,12 @@
       <c r="C29">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42441</v>
       </c>
@@ -11838,8 +11995,12 @@
       <c r="C30">
         <v>-7.58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42444</v>
       </c>
@@ -11849,8 +12010,12 @@
       <c r="C31">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42447</v>
       </c>
@@ -11860,8 +12025,12 @@
       <c r="C32">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42450</v>
       </c>
@@ -11871,8 +12040,12 @@
       <c r="C33">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42451</v>
       </c>
@@ -11882,8 +12055,12 @@
       <c r="C34">
         <v>4.26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42452</v>
       </c>
@@ -11893,8 +12070,12 @@
       <c r="C35">
         <v>-0.56000000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42452</v>
       </c>
@@ -11904,8 +12085,12 @@
       <c r="C36">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42454</v>
       </c>
@@ -11915,8 +12100,12 @@
       <c r="C37">
         <v>1.19</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42455</v>
       </c>
@@ -11926,8 +12115,12 @@
       <c r="C38">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42455</v>
       </c>
@@ -11937,8 +12130,12 @@
       <c r="C39">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42456</v>
       </c>
@@ -11948,8 +12145,12 @@
       <c r="C40">
         <v>6.37</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42457</v>
       </c>
@@ -11959,8 +12160,12 @@
       <c r="C41">
         <v>7.46</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42458</v>
       </c>
@@ -11970,8 +12175,12 @@
       <c r="C42">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42468</v>
       </c>
@@ -11981,8 +12190,12 @@
       <c r="C43">
         <v>10.67</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42470</v>
       </c>
@@ -11992,8 +12205,12 @@
       <c r="C44">
         <v>13.18</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42472</v>
       </c>
@@ -12003,8 +12220,12 @@
       <c r="C45">
         <v>15.09</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42475</v>
       </c>
@@ -12014,8 +12235,12 @@
       <c r="C46">
         <v>15.76</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42478</v>
       </c>
@@ -12025,8 +12250,12 @@
       <c r="C47">
         <v>15.57</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42479</v>
       </c>
@@ -12036,8 +12265,12 @@
       <c r="C48">
         <v>12.47</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42480</v>
       </c>
@@ -12047,8 +12280,12 @@
       <c r="C49">
         <v>10.08</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42480</v>
       </c>
@@ -12058,8 +12295,12 @@
       <c r="C50">
         <v>12.18</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42484</v>
       </c>
@@ -12069,8 +12310,12 @@
       <c r="C51">
         <v>11.07</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42485</v>
       </c>
@@ -12080,8 +12325,12 @@
       <c r="C52">
         <v>10.59</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42485</v>
       </c>
@@ -12091,8 +12340,12 @@
       <c r="C53">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42487</v>
       </c>
@@ -12102,8 +12355,12 @@
       <c r="C54">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42489</v>
       </c>
@@ -12113,8 +12370,12 @@
       <c r="C55">
         <v>10.89</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42492</v>
       </c>
@@ -12124,8 +12385,12 @@
       <c r="C56">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42493</v>
       </c>
@@ -12135,8 +12400,12 @@
       <c r="C57">
         <v>10.82</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42495</v>
       </c>
@@ -12146,8 +12415,12 @@
       <c r="C58">
         <v>11.47</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42495</v>
       </c>
@@ -12157,8 +12430,12 @@
       <c r="C59">
         <v>15.02</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42495</v>
       </c>
@@ -12168,8 +12445,12 @@
       <c r="C60">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42496</v>
       </c>
@@ -12179,8 +12460,12 @@
       <c r="C61">
         <v>11.29</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42498</v>
       </c>
@@ -12190,8 +12475,12 @@
       <c r="C62">
         <v>13.23</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42498</v>
       </c>
@@ -12201,8 +12490,12 @@
       <c r="C63">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42499</v>
       </c>
@@ -12212,8 +12505,12 @@
       <c r="C64">
         <v>15.72</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42500</v>
       </c>
@@ -12223,8 +12520,12 @@
       <c r="C65">
         <v>12.33</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42501</v>
       </c>
@@ -12234,8 +12535,12 @@
       <c r="C66">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42502</v>
       </c>
@@ -12245,8 +12550,12 @@
       <c r="C67">
         <v>14.26</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <f t="shared" ref="D67:D130" si="1">IF(AND(B67&gt;=$E$1, B67 &lt;= $F$1),C67," ")</f>
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42504</v>
       </c>
@@ -12256,8 +12565,12 @@
       <c r="C68">
         <v>15.06</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="3">
+        <f t="shared" si="1"/>
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42505</v>
       </c>
@@ -12267,8 +12580,12 @@
       <c r="C69">
         <v>11.65</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <f t="shared" si="1"/>
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42508</v>
       </c>
@@ -12278,8 +12595,12 @@
       <c r="C70">
         <v>13.12</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <f t="shared" si="1"/>
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42511</v>
       </c>
@@ -12289,8 +12610,12 @@
       <c r="C71">
         <v>10.56</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42512</v>
       </c>
@@ -12300,8 +12625,12 @@
       <c r="C72">
         <v>11.48</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="3">
+        <f t="shared" si="1"/>
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42517</v>
       </c>
@@ -12311,8 +12640,12 @@
       <c r="C73">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="3">
+        <f t="shared" si="1"/>
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42518</v>
       </c>
@@ -12322,8 +12655,12 @@
       <c r="C74">
         <v>15.48</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42523</v>
       </c>
@@ -12333,8 +12670,12 @@
       <c r="C75">
         <v>15.35</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="3">
+        <f t="shared" si="1"/>
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42526</v>
       </c>
@@ -12344,8 +12685,12 @@
       <c r="C76">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42529</v>
       </c>
@@ -12355,8 +12700,12 @@
       <c r="C77">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42530</v>
       </c>
@@ -12366,8 +12715,12 @@
       <c r="C78">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42532</v>
       </c>
@@ -12377,8 +12730,12 @@
       <c r="C79">
         <v>16.18</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42532</v>
       </c>
@@ -12388,8 +12745,12 @@
       <c r="C80">
         <v>16.309999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="3">
+        <f t="shared" si="1"/>
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42534</v>
       </c>
@@ -12399,8 +12760,12 @@
       <c r="C81">
         <v>12.21</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42534</v>
       </c>
@@ -12410,8 +12775,12 @@
       <c r="C82">
         <v>17.190000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="3">
+        <f t="shared" si="1"/>
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42536</v>
       </c>
@@ -12421,8 +12790,12 @@
       <c r="C83">
         <v>17.61</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="3">
+        <f t="shared" si="1"/>
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42536</v>
       </c>
@@ -12432,8 +12805,12 @@
       <c r="C84">
         <v>17.45</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="3">
+        <f t="shared" si="1"/>
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42537</v>
       </c>
@@ -12443,8 +12820,12 @@
       <c r="C85">
         <v>19.93</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42540</v>
       </c>
@@ -12454,8 +12835,12 @@
       <c r="C86">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="3">
+        <f t="shared" si="1"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42540</v>
       </c>
@@ -12465,8 +12850,12 @@
       <c r="C87">
         <v>19.510000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="3">
+        <f t="shared" si="1"/>
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42541</v>
       </c>
@@ -12476,8 +12865,12 @@
       <c r="C88">
         <v>13.96</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42542</v>
       </c>
@@ -12487,8 +12880,12 @@
       <c r="C89">
         <v>16.440000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42545</v>
       </c>
@@ -12498,8 +12895,12 @@
       <c r="C90">
         <v>10.98</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="3">
+        <f t="shared" si="1"/>
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42545</v>
       </c>
@@ -12509,8 +12910,12 @@
       <c r="C91">
         <v>12.83</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="3">
+        <f t="shared" si="1"/>
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42546</v>
       </c>
@@ -12520,8 +12925,12 @@
       <c r="C92">
         <v>17.54</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="3">
+        <f t="shared" si="1"/>
+        <v>17.54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42547</v>
       </c>
@@ -12531,8 +12940,12 @@
       <c r="C93">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42547</v>
       </c>
@@ -12542,8 +12955,12 @@
       <c r="C94">
         <v>13.33</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42547</v>
       </c>
@@ -12553,8 +12970,12 @@
       <c r="C95">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="3">
+        <f t="shared" si="1"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42548</v>
       </c>
@@ -12564,8 +12985,12 @@
       <c r="C96">
         <v>11.63</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="3">
+        <f t="shared" si="1"/>
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42549</v>
       </c>
@@ -12575,8 +13000,12 @@
       <c r="C97">
         <v>16.27</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42551</v>
       </c>
@@ -12586,8 +13015,12 @@
       <c r="C98">
         <v>13.52</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42553</v>
       </c>
@@ -12597,8 +13030,12 @@
       <c r="C99">
         <v>22.95</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="3">
+        <f t="shared" si="1"/>
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42554</v>
       </c>
@@ -12608,8 +13045,12 @@
       <c r="C100">
         <v>24.18</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42556</v>
       </c>
@@ -12619,8 +13060,12 @@
       <c r="C101">
         <v>21.27</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42557</v>
       </c>
@@ -12630,8 +13075,12 @@
       <c r="C102">
         <v>23.33</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42557</v>
       </c>
@@ -12641,8 +13090,12 @@
       <c r="C103">
         <v>23.59</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="3">
+        <f t="shared" si="1"/>
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42558</v>
       </c>
@@ -12652,8 +13105,12 @@
       <c r="C104">
         <v>21.85</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42558</v>
       </c>
@@ -12663,8 +13120,12 @@
       <c r="C105">
         <v>20.56</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42558</v>
       </c>
@@ -12674,8 +13135,12 @@
       <c r="C106">
         <v>20.16</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42558</v>
       </c>
@@ -12685,8 +13150,12 @@
       <c r="C107">
         <v>24.31</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="3">
+        <f t="shared" si="1"/>
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42561</v>
       </c>
@@ -12696,8 +13165,12 @@
       <c r="C108">
         <v>20.260000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="3">
+        <f t="shared" si="1"/>
+        <v>20.260000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42565</v>
       </c>
@@ -12707,8 +13180,12 @@
       <c r="C109">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42567</v>
       </c>
@@ -12718,8 +13195,12 @@
       <c r="C110">
         <v>21.08</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="3">
+        <f t="shared" si="1"/>
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42568</v>
       </c>
@@ -12729,8 +13210,12 @@
       <c r="C111">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42571</v>
       </c>
@@ -12740,8 +13225,12 @@
       <c r="C112">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42571</v>
       </c>
@@ -12751,8 +13240,12 @@
       <c r="C113">
         <v>23.58</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42572</v>
       </c>
@@ -12762,8 +13255,12 @@
       <c r="C114">
         <v>24.33</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42573</v>
       </c>
@@ -12773,8 +13270,12 @@
       <c r="C115">
         <v>22.22</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="3">
+        <f t="shared" si="1"/>
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42576</v>
       </c>
@@ -12784,8 +13285,12 @@
       <c r="C116">
         <v>24.59</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42581</v>
       </c>
@@ -12795,8 +13300,12 @@
       <c r="C117">
         <v>23.14</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42583</v>
       </c>
@@ -12806,8 +13315,12 @@
       <c r="C118">
         <v>21.06</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42585</v>
       </c>
@@ -12817,8 +13330,12 @@
       <c r="C119">
         <v>23.27</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42587</v>
       </c>
@@ -12828,8 +13345,12 @@
       <c r="C120">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="3">
+        <f t="shared" si="1"/>
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42588</v>
       </c>
@@ -12839,8 +13360,12 @@
       <c r="C121">
         <v>22.16</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="3">
+        <f t="shared" si="1"/>
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42590</v>
       </c>
@@ -12850,8 +13375,12 @@
       <c r="C122">
         <v>21.05</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42591</v>
       </c>
@@ -12861,8 +13390,12 @@
       <c r="C123">
         <v>24.34</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="3">
+        <f t="shared" si="1"/>
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42594</v>
       </c>
@@ -12872,8 +13405,12 @@
       <c r="C124">
         <v>22.25</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42594</v>
       </c>
@@ -12883,8 +13420,12 @@
       <c r="C125">
         <v>22.55</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42596</v>
       </c>
@@ -12894,8 +13435,12 @@
       <c r="C126">
         <v>24.22</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42599</v>
       </c>
@@ -12905,8 +13450,12 @@
       <c r="C127">
         <v>22.07</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="3">
+        <f t="shared" si="1"/>
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42601</v>
       </c>
@@ -12916,8 +13465,12 @@
       <c r="C128">
         <v>21.36</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="3">
+        <f t="shared" si="1"/>
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42601</v>
       </c>
@@ -12927,8 +13480,12 @@
       <c r="C129">
         <v>23.02</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="3">
+        <f t="shared" si="1"/>
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42601</v>
       </c>
@@ -12938,8 +13495,12 @@
       <c r="C130">
         <v>20.13</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="3">
+        <f t="shared" si="1"/>
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42603</v>
       </c>
@@ -12949,8 +13510,12 @@
       <c r="C131">
         <v>24.61</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="3" t="str">
+        <f t="shared" ref="D131:D194" si="2">IF(AND(B131&gt;=$E$1, B131 &lt;= $F$1),C131," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42603</v>
       </c>
@@ -12960,8 +13525,12 @@
       <c r="C132">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42605</v>
       </c>
@@ -12971,8 +13540,12 @@
       <c r="C133">
         <v>22.23</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="3">
+        <f t="shared" si="2"/>
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42606</v>
       </c>
@@ -12982,8 +13555,12 @@
       <c r="C134">
         <v>21.52</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42606</v>
       </c>
@@ -12993,8 +13570,12 @@
       <c r="C135">
         <v>23.42</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="3">
+        <f t="shared" si="2"/>
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42607</v>
       </c>
@@ -13004,8 +13585,12 @@
       <c r="C136">
         <v>22.45</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="3">
+        <f t="shared" si="2"/>
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42609</v>
       </c>
@@ -13015,8 +13600,12 @@
       <c r="C137">
         <v>22.32</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42609</v>
       </c>
@@ -13026,8 +13615,12 @@
       <c r="C138">
         <v>22.83</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42610</v>
       </c>
@@ -13037,8 +13630,12 @@
       <c r="C139">
         <v>23.35</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="3">
+        <f t="shared" si="2"/>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42611</v>
       </c>
@@ -13048,8 +13645,12 @@
       <c r="C140">
         <v>23</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42611</v>
       </c>
@@ -13059,8 +13660,12 @@
       <c r="C141">
         <v>23.07</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="3">
+        <f t="shared" si="2"/>
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42616</v>
       </c>
@@ -13070,8 +13675,12 @@
       <c r="C142">
         <v>19.38</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="3">
+        <f t="shared" si="2"/>
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>42616</v>
       </c>
@@ -13081,8 +13690,12 @@
       <c r="C143">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>42617</v>
       </c>
@@ -13092,8 +13705,12 @@
       <c r="C144">
         <v>16.059999999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="3">
+        <f t="shared" si="2"/>
+        <v>16.059999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>42619</v>
       </c>
@@ -13103,8 +13720,12 @@
       <c r="C145">
         <v>10.85</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="3">
+        <f t="shared" si="2"/>
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>42619</v>
       </c>
@@ -13114,8 +13735,12 @@
       <c r="C146">
         <v>14.86</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="3">
+        <f t="shared" si="2"/>
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>42626</v>
       </c>
@@ -13125,8 +13750,12 @@
       <c r="C147">
         <v>16.45</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="3">
+        <f t="shared" si="2"/>
+        <v>16.45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>42627</v>
       </c>
@@ -13136,8 +13765,12 @@
       <c r="C148">
         <v>18.46</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>42628</v>
       </c>
@@ -13147,8 +13780,12 @@
       <c r="C149">
         <v>11.14</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="3">
+        <f t="shared" si="2"/>
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>42631</v>
       </c>
@@ -13158,8 +13795,12 @@
       <c r="C150">
         <v>12.37</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="3">
+        <f t="shared" si="2"/>
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>42634</v>
       </c>
@@ -13169,8 +13810,12 @@
       <c r="C151">
         <v>18.739999999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42635</v>
       </c>
@@ -13180,8 +13825,12 @@
       <c r="C152">
         <v>12.22</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="3">
+        <f t="shared" si="2"/>
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42635</v>
       </c>
@@ -13191,8 +13840,12 @@
       <c r="C153">
         <v>18.29</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="3">
+        <f t="shared" si="2"/>
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42636</v>
       </c>
@@ -13202,8 +13855,12 @@
       <c r="C154">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>42639</v>
       </c>
@@ -13213,8 +13870,12 @@
       <c r="C155">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>42641</v>
       </c>
@@ -13224,8 +13885,12 @@
       <c r="C156">
         <v>14.88</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="3">
+        <f t="shared" si="2"/>
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>42645</v>
       </c>
@@ -13235,8 +13900,12 @@
       <c r="C157">
         <v>11.19</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="3">
+        <f t="shared" si="2"/>
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>42647</v>
       </c>
@@ -13246,8 +13915,12 @@
       <c r="C158">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>42647</v>
       </c>
@@ -13257,8 +13930,12 @@
       <c r="C159">
         <v>11.24</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="3">
+        <f t="shared" si="2"/>
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>42650</v>
       </c>
@@ -13268,8 +13945,12 @@
       <c r="C160">
         <v>17.57</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>42653</v>
       </c>
@@ -13279,8 +13960,12 @@
       <c r="C161">
         <v>11.62</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="3">
+        <f t="shared" si="2"/>
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>42654</v>
       </c>
@@ -13290,8 +13975,12 @@
       <c r="C162">
         <v>10.46</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>42654</v>
       </c>
@@ -13301,8 +13990,12 @@
       <c r="C163">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>42654</v>
       </c>
@@ -13312,8 +14005,12 @@
       <c r="C164">
         <v>13.63</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="3">
+        <f t="shared" si="2"/>
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>42655</v>
       </c>
@@ -13323,8 +14020,12 @@
       <c r="C165">
         <v>12.08</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42657</v>
       </c>
@@ -13334,8 +14035,12 @@
       <c r="C166">
         <v>19.87</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42660</v>
       </c>
@@ -13345,8 +14050,12 @@
       <c r="C167">
         <v>12.61</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="3">
+        <f t="shared" si="2"/>
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42664</v>
       </c>
@@ -13356,8 +14065,12 @@
       <c r="C168">
         <v>18.649999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="3">
+        <f t="shared" si="2"/>
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42666</v>
       </c>
@@ -13367,8 +14080,12 @@
       <c r="C169">
         <v>18.489999999999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>42666</v>
       </c>
@@ -13378,8 +14095,12 @@
       <c r="C170">
         <v>17.16</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="3">
+        <f t="shared" si="2"/>
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42667</v>
       </c>
@@ -13389,8 +14110,12 @@
       <c r="C171">
         <v>13.41</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D171" s="3">
+        <f t="shared" si="2"/>
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42668</v>
       </c>
@@ -13400,8 +14125,12 @@
       <c r="C172">
         <v>10.76</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42668</v>
       </c>
@@ -13411,8 +14140,12 @@
       <c r="C173">
         <v>19.05</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D173" s="3">
+        <f t="shared" si="2"/>
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42669</v>
       </c>
@@ -13422,8 +14155,12 @@
       <c r="C174">
         <v>11.07</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42669</v>
       </c>
@@ -13433,8 +14170,12 @@
       <c r="C175">
         <v>16.09</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="3">
+        <f t="shared" si="2"/>
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42675</v>
       </c>
@@ -13444,8 +14185,12 @@
       <c r="C176">
         <v>13.47</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="3">
+        <f t="shared" si="2"/>
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42675</v>
       </c>
@@ -13455,8 +14200,12 @@
       <c r="C177">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="3">
+        <f t="shared" si="2"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42676</v>
       </c>
@@ -13466,8 +14215,12 @@
       <c r="C178">
         <v>16.13</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="3">
+        <f t="shared" si="2"/>
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42679</v>
       </c>
@@ -13477,8 +14230,12 @@
       <c r="C179">
         <v>10.42</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="3">
+        <f t="shared" si="2"/>
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42682</v>
       </c>
@@ -13488,8 +14245,12 @@
       <c r="C180">
         <v>11.95</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42685</v>
       </c>
@@ -13499,8 +14260,12 @@
       <c r="C181">
         <v>14.32</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="3">
+        <f t="shared" si="2"/>
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42686</v>
       </c>
@@ -13510,8 +14275,12 @@
       <c r="C182">
         <v>19</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42687</v>
       </c>
@@ -13521,8 +14290,12 @@
       <c r="C183">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42687</v>
       </c>
@@ -13532,8 +14305,12 @@
       <c r="C184">
         <v>13.79</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="3">
+        <f t="shared" si="2"/>
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42691</v>
       </c>
@@ -13543,8 +14320,12 @@
       <c r="C185">
         <v>15.22</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="3">
+        <f t="shared" si="2"/>
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42693</v>
       </c>
@@ -13554,8 +14335,12 @@
       <c r="C186">
         <v>14.51</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="3">
+        <f t="shared" si="2"/>
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42695</v>
       </c>
@@ -13565,8 +14350,12 @@
       <c r="C187">
         <v>18.579999999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="3">
+        <f t="shared" si="2"/>
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42696</v>
       </c>
@@ -13576,8 +14365,12 @@
       <c r="C188">
         <v>11.33</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="3">
+        <f t="shared" si="2"/>
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42698</v>
       </c>
@@ -13587,8 +14380,12 @@
       <c r="C189">
         <v>19.440000000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42702</v>
       </c>
@@ -13598,8 +14395,12 @@
       <c r="C190">
         <v>11.06</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="3">
+        <f t="shared" si="2"/>
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42703</v>
       </c>
@@ -13609,8 +14410,12 @@
       <c r="C191">
         <v>19.04</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42704</v>
       </c>
@@ -13620,8 +14425,12 @@
       <c r="C192">
         <v>15.14</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42713</v>
       </c>
@@ -13631,8 +14440,12 @@
       <c r="C193">
         <v>-1.63</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42715</v>
       </c>
@@ -13642,8 +14455,12 @@
       <c r="C194">
         <v>-1.87</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42716</v>
       </c>
@@ -13653,8 +14470,12 @@
       <c r="C195">
         <v>-1.64</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="3">
+        <f t="shared" ref="D195:D201" si="3">IF(AND(B195&gt;=$E$1, B195 &lt;= $F$1),C195," ")</f>
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42720</v>
       </c>
@@ -13664,8 +14485,12 @@
       <c r="C196">
         <v>6.51</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42722</v>
       </c>
@@ -13675,8 +14500,12 @@
       <c r="C197">
         <v>-0.68</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42727</v>
       </c>
@@ -13686,8 +14515,12 @@
       <c r="C198">
         <v>-6.83</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42728</v>
       </c>
@@ -13697,8 +14530,12 @@
       <c r="C199">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42731</v>
       </c>
@@ -13708,8 +14545,12 @@
       <c r="C200">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42732</v>
       </c>
@@ -13719,17 +14560,15 @@
       <c r="C201">
         <v>-3.18</v>
       </c>
+      <c r="D201" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B201" xr:uid="{ABFE81AD-36FD-4286-AEA6-61D73748AEB2}">
-    <filterColumn colId="0">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="0.20833333333333334"/>
-        <customFilter operator="lessThanOrEqual" val="0.5"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B201" xr:uid="{ABFE81AD-36FD-4286-AEA6-61D73748AEB2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38697,7 +39536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6878482-97FE-4028-A254-EFEA56F32DED}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
